--- a/similarities/split_global/harmonic_similarity_timestamps_17.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,330 +484,344 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['B', 'F#', 'B']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['C:7', 'F:maj', 'C:7']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:24.838594', '0:00:43.252018')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
+          <t>('0:01:04.480000', '0:01:11.020000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=24.838594']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=64.48</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_153</t>
+          <t>isophonics_257</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:01:00.120000', '0:01:01.360000')]</t>
+          <t>('0:00:55.943242', '0:01:05.045464')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000')]</t>
+          <t>('0:00:30.180000', '0:00:32.080000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-257#t=55.943242</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=30.18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_16</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:01:10.380000', '0:01:30.980000')]</t>
+          <t>('0:00:14.168000', '0:00:18.573000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:02:02.780000', '0:02:05')]</t>
+          <t>('0:00:01.640000', '0:00:23.480000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=70.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=14.168</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=122.78']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-16#t=1.64</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
+          <t>['E:maj/G#', 'A:maj', 'E:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:27.360000', '0:00:34.920000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:07.720000'), ('0:00:00.500000', '0:00:03.900000')]</t>
+          <t>('0:00:54.180000', '0:01:01.460000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=79.42', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=3.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=54.18</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>isophonics_99</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>schubert-winterreise_176</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['B', 'A', 'E']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['G:maj/B', 'F:maj/A', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:20.614081', '0:00:24.271224')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:01.320000', '0:01:03.700000')]</t>
+          <t>('0:00:26.920000', '0:00:29.340000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-99#t=20.614081</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=26.92</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['F:min', 'C:7', 'F:min', 'Ab']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['G:min/D', 'D:7', 'G:min', 'A#:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:01.260000', '0:00:05.440000')]</t>
+          <t>('0:00:45.670000', '0:00:51.020000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:21.420000', '0:01:30.040000')]</t>
+          <t>('0:00:55.700000', '0:01:06.060000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-20#t=45.67</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=55.7</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_74</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:15.586961')]</t>
+          <t>('0:00:14.450219', '0:00:23.088042')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:07.600000', '0:02:12.400000')]</t>
+          <t>('0:02:09.380000', '0:02:14.740000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=14.450219</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=129.38</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -816,178 +830,186 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>jaah_67</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['B:7', 'E:maj', 'B:7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['C:7', 'F', 'C:7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:49.860000', '0:01:58.640000')]</t>
+          <t>('0:00:02.540000', '0:00:09.700000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:01:06.880000', '0:01:19')]</t>
+          <t>('0:00:24.120000', '0:00:27')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=109.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=2.54</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_236</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:39.849523', '0:01:48.092607')]</t>
+          <t>('0:00:00.421247', '0:00:05.746892')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-236#t=11.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=99.849523']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_90</t>
+          <t>jaah_86</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:7', 'Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
+          <t>['A:7', 'D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:02:37.840000', '0:02:40.980000'), ('0:02:34.760000', '0:02:39.840000')]</t>
+          <t>('0:00:12.430000', '0:00:17.230000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:42.174263', '0:01:51.798209'), ('0:01:45.425056', '0:01:55.003287')]</t>
+          <t>('0:00:17.560000', '0:00:38.640000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=157.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-90#t=154.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-86#t=12.43</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=102.174263', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=17.56</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>isophonics_175</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj'], ['C:maj/E', 'G:maj/D', 'G:7/F']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E'], ['A', 'E', 'E:7']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000'), ('0:01:06.260000', '0:01:11.400000')]</t>
+          <t>('0:00:16.820000', '0:00:23.180000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:15.216000', '0:00:32.669000'), ('0:01:32.241000', '0:01:38.929000')]</t>
+          <t>('0:01:43.520929', '0:01:48.664149')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=66.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=16.82</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=92.241']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-175#t=103.520929</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -996,194 +1018,200 @@
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:01.640000', '0:00:09.940000')]</t>
+          <t>('0:00:16.020000', '0:00:22.500000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:14.300000', '0:00:15.210000')]</t>
+          <t>('0:00:17.581738', '0:00:30.271443')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=1.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-31#t=17.581738</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_12</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_175</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:7']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:7']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:17.890000', '0:00:21.530000')]</t>
+          <t>('0:00:00.680000', '0:00:02.980000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:03.050000', '0:00:08.260000')]</t>
+          <t>('0:00:17.120000', '0:00:24.900000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-12#t=17.89']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=0.68</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=3.05']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-175#t=17.12</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>isophonics_220</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['D/5', 'E:9', 'A']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D:maj', 'E:9/G#', 'A:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:11.020000', '0:00:28.300000')]</t>
+          <t>('0:00:03.756394', '0:00:05.532721')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.700000', '0:00:07.380000')]</t>
+          <t>('0:00:58.860000', '0:01:02.620000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=11.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-220#t=3.756394</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=0.7']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=58.86</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>schubert-winterreise_199</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['F', 'C:7', 'F']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:18.260000', '0:00:24.820000')]</t>
+          <t>('0:01:03.840000', '0:01:05.240000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:03.129454', '0:00:05.172811')]</t>
+          <t>('0:00:00.590000', '0:00:16.750000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=0.59</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
